--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="H2">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="I2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="J2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5019479999999999</v>
+        <v>0.1197753333333333</v>
       </c>
       <c r="N2">
-        <v>1.505844</v>
+        <v>0.359326</v>
       </c>
       <c r="O2">
-        <v>0.7158577491785323</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="P2">
-        <v>0.7158577491785323</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="Q2">
-        <v>2.367449119488</v>
+        <v>0.4814505268711111</v>
       </c>
       <c r="R2">
-        <v>21.307042075392</v>
+        <v>4.33305474184</v>
       </c>
       <c r="S2">
-        <v>0.3795560626046694</v>
+        <v>0.3941332632343932</v>
       </c>
       <c r="T2">
-        <v>0.3795560626046694</v>
+        <v>0.3941332632343932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="H3">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="I3">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="J3">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1197753333333333</v>
+        <v>0.01324633333333333</v>
       </c>
       <c r="N3">
-        <v>0.359326</v>
+        <v>0.039739</v>
       </c>
       <c r="O3">
-        <v>0.1708186914323963</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="P3">
-        <v>0.1708186914323963</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="Q3">
-        <v>0.5649230745742223</v>
+        <v>0.05324513808444443</v>
       </c>
       <c r="R3">
-        <v>5.084307671168001</v>
+        <v>0.4792062427599999</v>
       </c>
       <c r="S3">
-        <v>0.09057004693147859</v>
+        <v>0.04358844544416921</v>
       </c>
       <c r="T3">
-        <v>0.09057004693147858</v>
+        <v>0.04358844544416921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.716522666666667</v>
+        <v>0.236474</v>
       </c>
       <c r="H4">
-        <v>14.149568</v>
+        <v>0.709422</v>
       </c>
       <c r="I4">
-        <v>0.530211572117814</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="J4">
-        <v>0.530211572117814</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07946066666666667</v>
+        <v>0.1197753333333333</v>
       </c>
       <c r="N4">
-        <v>0.238382</v>
+        <v>0.359326</v>
       </c>
       <c r="O4">
-        <v>0.1133235593890714</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="P4">
-        <v>0.1133235593890714</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="Q4">
-        <v>0.3747780354417778</v>
+        <v>0.02832375217466667</v>
       </c>
       <c r="R4">
-        <v>3.373002318976</v>
+        <v>0.254913769572</v>
       </c>
       <c r="S4">
-        <v>0.06008546258166603</v>
+        <v>0.02318687434863301</v>
       </c>
       <c r="T4">
-        <v>0.06008546258166602</v>
+        <v>0.02318687434863301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>0.709422</v>
       </c>
       <c r="I5">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="J5">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5019479999999999</v>
+        <v>0.01324633333333333</v>
       </c>
       <c r="N5">
-        <v>1.505844</v>
+        <v>0.039739</v>
       </c>
       <c r="O5">
-        <v>0.7158577491785323</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="P5">
-        <v>0.7158577491785323</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="Q5">
-        <v>0.118697651352</v>
+        <v>0.003132413428666666</v>
       </c>
       <c r="R5">
-        <v>1.068278862168</v>
+        <v>0.028191720858</v>
       </c>
       <c r="S5">
-        <v>0.01902993936246885</v>
+        <v>0.002564309846046006</v>
       </c>
       <c r="T5">
-        <v>0.01902993936246886</v>
+        <v>0.002564309846046006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.236474</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="H6">
-        <v>0.709422</v>
+        <v>14.78084</v>
       </c>
       <c r="I6">
-        <v>0.02658340904223816</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="J6">
-        <v>0.02658340904223817</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.359326</v>
       </c>
       <c r="O6">
-        <v>0.1708186914323963</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="P6">
-        <v>0.1708186914323963</v>
+        <v>0.9004197311214965</v>
       </c>
       <c r="Q6">
-        <v>0.02832375217466667</v>
+        <v>0.5901266793155556</v>
       </c>
       <c r="R6">
-        <v>0.254913769572</v>
+        <v>5.311140113840001</v>
       </c>
       <c r="S6">
-        <v>0.004540943146407254</v>
+        <v>0.4830995935384704</v>
       </c>
       <c r="T6">
-        <v>0.004540943146407254</v>
+        <v>0.4830995935384704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.236474</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="H7">
-        <v>0.709422</v>
+        <v>14.78084</v>
       </c>
       <c r="I7">
-        <v>0.02658340904223816</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="J7">
-        <v>0.02658340904223817</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.07946066666666667</v>
+        <v>0.01324633333333333</v>
       </c>
       <c r="N7">
-        <v>0.238382</v>
+        <v>0.039739</v>
       </c>
       <c r="O7">
-        <v>0.1133235593890714</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="P7">
-        <v>0.1133235593890714</v>
+        <v>0.09958026887850349</v>
       </c>
       <c r="Q7">
-        <v>0.01879038168933333</v>
+        <v>0.06526397786222222</v>
       </c>
       <c r="R7">
-        <v>0.169113435204</v>
+        <v>0.58737580076</v>
       </c>
       <c r="S7">
-        <v>0.003012526533362055</v>
+        <v>0.05342751358828828</v>
       </c>
       <c r="T7">
-        <v>0.003012526533362055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.942551666666667</v>
-      </c>
-      <c r="H8">
-        <v>11.827655</v>
-      </c>
-      <c r="I8">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="J8">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5019479999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.505844</v>
-      </c>
-      <c r="O8">
-        <v>0.7158577491785323</v>
-      </c>
-      <c r="P8">
-        <v>0.7158577491785323</v>
-      </c>
-      <c r="Q8">
-        <v>1.97895592398</v>
-      </c>
-      <c r="R8">
-        <v>17.81060331582</v>
-      </c>
-      <c r="S8">
-        <v>0.317271747211394</v>
-      </c>
-      <c r="T8">
-        <v>0.317271747211394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.942551666666667</v>
-      </c>
-      <c r="H9">
-        <v>11.827655</v>
-      </c>
-      <c r="I9">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="J9">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1197753333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.359326</v>
-      </c>
-      <c r="O9">
-        <v>0.1708186914323963</v>
-      </c>
-      <c r="P9">
-        <v>0.1708186914323963</v>
-      </c>
-      <c r="Q9">
-        <v>0.4722204400588889</v>
-      </c>
-      <c r="R9">
-        <v>4.249983960530001</v>
-      </c>
-      <c r="S9">
-        <v>0.07570770135451042</v>
-      </c>
-      <c r="T9">
-        <v>0.07570770135451041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.942551666666667</v>
-      </c>
-      <c r="H10">
-        <v>11.827655</v>
-      </c>
-      <c r="I10">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="J10">
-        <v>0.4432050188399478</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.07946066666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.238382</v>
-      </c>
-      <c r="O10">
-        <v>0.1133235593890714</v>
-      </c>
-      <c r="P10">
-        <v>0.1133235593890714</v>
-      </c>
-      <c r="Q10">
-        <v>0.3132777838011111</v>
-      </c>
-      <c r="R10">
-        <v>2.81950005421</v>
-      </c>
-      <c r="S10">
-        <v>0.05022557027404335</v>
-      </c>
-      <c r="T10">
-        <v>0.05022557027404334</v>
+        <v>0.05342751358828828</v>
       </c>
     </row>
   </sheetData>
